--- a/Shablon/TDS 1002B.xlsx
+++ b/Shablon/TDS 1002B.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="213">
   <si>
     <t>3. Определение метрологических характеристик.</t>
   </si>
@@ -37,21 +37,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t>_type</t>
@@ -723,11 +708,14 @@
   <si>
     <t>периодическая</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1035,61 +1023,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1099,33 +1068,52 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1436,7 +1424,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1450,74 +1438,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="A3" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1531,18 +1511,18 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="A7" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
@@ -1557,114 +1537,114 @@
       <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="54"/>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="54"/>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="54"/>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="54"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -1679,7 +1659,7 @@
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1692,112 +1672,112 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="32" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="H21" s="39"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="57" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="57" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="40" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="H23" s="39"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="57" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="40"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1805,21 +1785,21 @@
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="1"/>
@@ -1837,7 +1817,7 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1861,7 +1841,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1910,390 +1890,390 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
+      <c r="A34" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="J35" s="29"/>
+      <c r="A35" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="43"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
+      <c r="A41" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="49"/>
       <c r="G42" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I42" s="34">
+        <v>59</v>
+      </c>
+      <c r="I42" s="45">
         <v>4</v>
       </c>
-      <c r="J42" s="34"/>
+      <c r="J42" s="45"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="49"/>
       <c r="G43" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="33"/>
+        <v>37</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="49"/>
       <c r="G44" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="I44" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="J44" s="53"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="33"/>
+        <v>170</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="49"/>
       <c r="G45" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="33"/>
+      <c r="C46" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="49"/>
       <c r="G46" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+        <v>63</v>
+      </c>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="33"/>
+        <v>38</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="49"/>
       <c r="G47" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+        <v>64</v>
+      </c>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="33"/>
+      <c r="C48" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="49"/>
       <c r="G48" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" s="33"/>
+        <v>39</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="49"/>
       <c r="G49" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+        <v>80</v>
+      </c>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="49"/>
       <c r="G50" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
+        <v>82</v>
+      </c>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="33"/>
+      <c r="C51" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="49"/>
       <c r="G51" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="33"/>
+      <c r="C52" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="49"/>
       <c r="G52" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
+        <v>86</v>
+      </c>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
@@ -2368,376 +2348,376 @@
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="J59" s="29"/>
+      <c r="A59" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="J59" s="43"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="32"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
       <c r="G63" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H63" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
+      <c r="A65" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" s="49"/>
       <c r="G66" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I66" s="34">
+        <v>139</v>
+      </c>
+      <c r="I66" s="45">
         <v>4</v>
       </c>
-      <c r="J66" s="34"/>
+      <c r="J66" s="45"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F67" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="49"/>
       <c r="G67" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
+        <v>141</v>
+      </c>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="33"/>
+        <v>37</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="49"/>
       <c r="G68" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I68" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J68" s="35"/>
+        <v>143</v>
+      </c>
+      <c r="I68" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="J68" s="53"/>
     </row>
     <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="33"/>
+        <v>170</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="49"/>
       <c r="G69" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
+        <v>145</v>
+      </c>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F70" s="33"/>
+      <c r="C70" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="49"/>
       <c r="G70" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
+        <v>147</v>
+      </c>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
     </row>
     <row r="71" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" s="33"/>
+        <v>38</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="49"/>
       <c r="G71" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
+        <v>149</v>
+      </c>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" s="33"/>
+      <c r="C72" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="49"/>
       <c r="G72" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
+        <v>151</v>
+      </c>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
     </row>
     <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73" s="33"/>
+        <v>39</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="49"/>
       <c r="G73" s="11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
+        <v>153</v>
+      </c>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
     </row>
     <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="49"/>
       <c r="G74" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
+        <v>155</v>
+      </c>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
     </row>
     <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F75" s="33"/>
+      <c r="C75" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="49"/>
       <c r="G75" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="33"/>
+      <c r="C76" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" s="49"/>
       <c r="G76" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
+        <v>159</v>
+      </c>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
@@ -2746,318 +2726,318 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="G80" s="29"/>
-      <c r="H80" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
+      <c r="A80" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="44"/>
+      <c r="D80" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" s="43"/>
+      <c r="H80" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
       <c r="H82" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="34">
+      <c r="A83" s="45">
         <v>1</v>
       </c>
       <c r="B83" s="16">
         <v>5</v>
       </c>
-      <c r="C83" s="34" t="s">
-        <v>167</v>
+      <c r="C83" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="D83" s="18">
         <v>2.5</v>
       </c>
-      <c r="E83" s="34" t="s">
-        <v>168</v>
+      <c r="E83" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="F83" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G83" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I83" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="G83" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J83" s="34" t="s">
-        <v>167</v>
+      <c r="J83" s="45" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="16">
         <v>100</v>
       </c>
-      <c r="C84" s="34"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="18">
         <v>50</v>
       </c>
-      <c r="E84" s="34"/>
+      <c r="E84" s="45"/>
       <c r="F84" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G84" s="34"/>
+        <v>167</v>
+      </c>
+      <c r="G84" s="45"/>
       <c r="H84" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="J84" s="34"/>
+        <v>176</v>
+      </c>
+      <c r="J84" s="45"/>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="34"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="16">
         <v>500</v>
       </c>
-      <c r="C85" s="34"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="18">
         <v>250</v>
       </c>
-      <c r="E85" s="34"/>
+      <c r="E85" s="45"/>
       <c r="F85" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G85" s="34"/>
+        <v>168</v>
+      </c>
+      <c r="G85" s="45"/>
       <c r="H85" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J85" s="34"/>
+        <v>165</v>
+      </c>
+      <c r="J85" s="45"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="34"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="16">
         <v>1</v>
       </c>
-      <c r="C86" s="34" t="s">
-        <v>178</v>
+      <c r="C86" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="D86" s="18">
         <v>500</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G86" s="34" t="s">
-        <v>190</v>
+        <v>169</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="J86" s="34" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="J86" s="45" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="34"/>
+      <c r="A87" s="45"/>
       <c r="B87" s="16">
         <v>5</v>
       </c>
-      <c r="C87" s="34"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="18">
         <v>2.5</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G87" s="34"/>
+        <v>172</v>
+      </c>
+      <c r="G87" s="45"/>
       <c r="H87" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J87" s="34"/>
+        <v>178</v>
+      </c>
+      <c r="J87" s="45"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="34">
+      <c r="A88" s="45">
         <v>2</v>
       </c>
       <c r="B88" s="16">
         <v>5</v>
       </c>
-      <c r="C88" s="34" t="s">
-        <v>167</v>
+      <c r="C88" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="D88" s="18">
         <v>2.5</v>
       </c>
-      <c r="E88" s="34" t="s">
-        <v>168</v>
+      <c r="E88" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G88" s="34" t="s">
-        <v>167</v>
+        <v>179</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J88" s="34" t="s">
-        <v>167</v>
+        <v>171</v>
+      </c>
+      <c r="J88" s="45" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="34"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="16">
         <v>100</v>
       </c>
-      <c r="C89" s="34"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="18">
         <v>50</v>
       </c>
-      <c r="E89" s="34"/>
+      <c r="E89" s="45"/>
       <c r="F89" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G89" s="34"/>
+        <v>180</v>
+      </c>
+      <c r="G89" s="45"/>
       <c r="H89" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="J89" s="34"/>
+        <v>176</v>
+      </c>
+      <c r="J89" s="45"/>
     </row>
     <row r="90" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="34"/>
+      <c r="A90" s="45"/>
       <c r="B90" s="16">
         <v>500</v>
       </c>
-      <c r="C90" s="34"/>
+      <c r="C90" s="45"/>
       <c r="D90" s="18">
         <v>250</v>
       </c>
-      <c r="E90" s="34"/>
+      <c r="E90" s="45"/>
       <c r="F90" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G90" s="34"/>
+        <v>181</v>
+      </c>
+      <c r="G90" s="45"/>
       <c r="H90" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J90" s="34"/>
+        <v>165</v>
+      </c>
+      <c r="J90" s="45"/>
     </row>
     <row r="91" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="34"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="16">
         <v>1</v>
       </c>
-      <c r="C91" s="34" t="s">
-        <v>178</v>
+      <c r="C91" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="D91" s="18">
         <v>500</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G91" s="34" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="G91" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="J91" s="34" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="J91" s="45" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="34"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="16">
         <v>5</v>
       </c>
-      <c r="C92" s="34"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="18">
         <v>2.5</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G92" s="34"/>
+        <v>183</v>
+      </c>
+      <c r="G92" s="45"/>
       <c r="H92" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J92" s="34"/>
+        <v>178</v>
+      </c>
+      <c r="J92" s="45"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
@@ -3065,106 +3045,106 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
+      <c r="A95" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
     </row>
     <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="J96" s="29"/>
+      <c r="A96" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="29"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
     </row>
     <row r="99" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A99" s="17">
         <v>1</v>
       </c>
-      <c r="B99" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C99" s="29">
+      <c r="B99" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="43">
         <v>0.5</v>
       </c>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29">
+      <c r="D99" s="43"/>
+      <c r="E99" s="43">
         <v>500</v>
       </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H99" s="37"/>
-      <c r="I99" s="29">
+      <c r="F99" s="43"/>
+      <c r="G99" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="H99" s="56"/>
+      <c r="I99" s="43">
         <v>5.8</v>
       </c>
-      <c r="J99" s="29"/>
+      <c r="J99" s="43"/>
     </row>
     <row r="100" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
         <v>2</v>
       </c>
-      <c r="B100" s="34"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="H100" s="37"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="H100" s="56"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -3172,20 +3152,20 @@
       </c>
     </row>
     <row r="105" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B105" s="30"/>
+      <c r="A105" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" s="54"/>
       <c r="C105" s="7"/>
       <c r="D105" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E105" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F105" s="31"/>
+        <v>90</v>
+      </c>
+      <c r="E105" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" s="58"/>
       <c r="G105" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H105" s="10"/>
       <c r="I105" s="1"/>
@@ -3202,14 +3182,14 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" s="36"/>
+      <c r="A107" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" s="54"/>
+      <c r="C107" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" s="55"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -3218,54 +3198,66 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="C59:D63"/>
-    <mergeCell ref="E59:F63"/>
-    <mergeCell ref="G59:H62"/>
-    <mergeCell ref="I59:J63"/>
-    <mergeCell ref="F80:G82"/>
-    <mergeCell ref="I99:J100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:F100"/>
-    <mergeCell ref="B80:C82"/>
-    <mergeCell ref="D80:E82"/>
-    <mergeCell ref="A95:J95"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="H80:J81"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="I68:J76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:D98"/>
+    <mergeCell ref="E96:F98"/>
+    <mergeCell ref="G96:H98"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E35:F39"/>
+    <mergeCell ref="I35:J39"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="I44:J52"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -3290,68 +3282,56 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G35:H38"/>
     <mergeCell ref="A40:J40"/>
-    <mergeCell ref="E35:F39"/>
-    <mergeCell ref="I35:J39"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I44:J52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:D98"/>
-    <mergeCell ref="E96:F98"/>
-    <mergeCell ref="G96:H98"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C59:D63"/>
+    <mergeCell ref="E59:F63"/>
+    <mergeCell ref="G59:H62"/>
+    <mergeCell ref="I59:J63"/>
+    <mergeCell ref="F80:G82"/>
+    <mergeCell ref="I99:J100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:F100"/>
+    <mergeCell ref="B80:C82"/>
+    <mergeCell ref="D80:E82"/>
+    <mergeCell ref="A95:J95"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="H80:J81"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="G83:G85"/>
     <mergeCell ref="I96:J98"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
     <mergeCell ref="I66:J67"/>
-    <mergeCell ref="I68:J76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
